--- a/piketty/charts/Variables Evolution.xlsx
+++ b/piketty/charts/Variables Evolution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Research\Inequality\Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea84217c06eed086/research/cgoes/piketty/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_951C2BEB26F6A304CB40B3C25A6FEA957CFF8AAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="10980"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="3" r:id="rId1"/>
@@ -20,10 +21,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indexing!$L$2:$V$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -155,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +217,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -288,6 +300,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8BF-46C2-B215-BFD4C1F7D73E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -361,6 +378,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8BF-46C2-B215-BFD4C1F7D73E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -421,6 +443,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8BF-46C2-B215-BFD4C1F7D73E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -529,6 +556,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8BF-46C2-B215-BFD4C1F7D73E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -683,7 +715,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -766,6 +798,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC5-4472-AA94-92DE3994055B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -839,6 +876,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DC5-4472-AA94-92DE3994055B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -899,6 +941,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DC5-4472-AA94-92DE3994055B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1007,6 +1054,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DC5-4472-AA94-92DE3994055B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2268,7 +2320,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2298,7 +2356,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2325,7 +2389,13 @@
     <xdr:ext cx="1246944" cy="298800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2380,7 +2450,13 @@
     <xdr:ext cx="269304" cy="2099549"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2435,7 +2511,13 @@
     <xdr:ext cx="269304" cy="2099549"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2907,11 +2989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6240,7 +6322,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R70">
     <sortCondition ref="B2:B70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6248,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8678,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
